--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Gdf2-Acvrl1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Gdf2-Acvrl1.xlsx
@@ -528,16 +528,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.74128222680149</v>
+        <v>1.807599666666667</v>
       </c>
       <c r="H2">
-        <v>1.74128222680149</v>
+        <v>5.422799</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.5081921177646</v>
+        <v>24.42119933333333</v>
       </c>
       <c r="N2">
-        <v>13.5081921177646</v>
+        <v>73.263598</v>
       </c>
       <c r="O2">
-        <v>0.2831050826344573</v>
+        <v>0.4086816635579248</v>
       </c>
       <c r="P2">
-        <v>0.2831050826344573</v>
+        <v>0.4086816635579248</v>
       </c>
       <c r="Q2">
-        <v>23.52157485088347</v>
+        <v>44.14375177453356</v>
       </c>
       <c r="R2">
-        <v>23.52157485088347</v>
+        <v>397.293765970802</v>
       </c>
       <c r="S2">
-        <v>0.2831050826344573</v>
+        <v>0.4086816635579248</v>
       </c>
       <c r="T2">
-        <v>0.2831050826344573</v>
+        <v>0.4086816635579248</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.74128222680149</v>
+        <v>1.807599666666667</v>
       </c>
       <c r="H3">
-        <v>1.74128222680149</v>
+        <v>5.422799</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>32.522816339454</v>
+        <v>33.48129</v>
       </c>
       <c r="N3">
-        <v>32.522816339454</v>
+        <v>100.44387</v>
       </c>
       <c r="O3">
-        <v>0.681614129190375</v>
+        <v>0.5602996441124273</v>
       </c>
       <c r="P3">
-        <v>0.681614129190375</v>
+        <v>0.5602996441124273</v>
       </c>
       <c r="Q3">
-        <v>56.63140205742035</v>
+        <v>60.52076864357</v>
       </c>
       <c r="R3">
-        <v>56.63140205742035</v>
+        <v>544.6869177921301</v>
       </c>
       <c r="S3">
-        <v>0.681614129190375</v>
+        <v>0.5602996441124273</v>
       </c>
       <c r="T3">
-        <v>0.681614129190375</v>
+        <v>0.5602996441124273</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.74128222680149</v>
+        <v>1.807599666666667</v>
       </c>
       <c r="H4">
-        <v>1.74128222680149</v>
+        <v>5.422799</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.68340200854563</v>
+        <v>1.853554333333333</v>
       </c>
       <c r="N4">
-        <v>1.68340200854563</v>
+        <v>5.560663</v>
       </c>
       <c r="O4">
-        <v>0.03528078817516764</v>
+        <v>0.03101869232964781</v>
       </c>
       <c r="P4">
-        <v>0.03528078817516764</v>
+        <v>0.03101869232964781</v>
       </c>
       <c r="Q4">
-        <v>2.931277998042435</v>
+        <v>3.350484195081889</v>
       </c>
       <c r="R4">
-        <v>2.931277998042435</v>
+        <v>30.154357755737</v>
       </c>
       <c r="S4">
-        <v>0.03528078817516764</v>
+        <v>0.03101869232964781</v>
       </c>
       <c r="T4">
-        <v>0.03528078817516764</v>
+        <v>0.03101869232964781</v>
       </c>
     </row>
   </sheetData>
